--- a/src/main/resources/inputData.xlsx
+++ b/src/main/resources/inputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Stuff\Java\Testing\STORE\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EDD62C-6220-4988-9CC1-343B8959199D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793B32B8-BE8B-4BF2-AEEB-99D6A248624E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,17 +87,17 @@
     <t>Sony VAIO</t>
   </si>
   <si>
-    <t>cagamosxd123@gmail.com</t>
-  </si>
-  <si>
-    <t>devererasxd123xd@gmail.com</t>
+    <t>cagamosxd123sera@gmail.com</t>
+  </si>
+  <si>
+    <t>devererasxdseraphine123xd@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -122,13 +122,6 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -159,7 +152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -171,7 +164,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -450,7 +442,7 @@
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2">

--- a/src/main/resources/inputData.xlsx
+++ b/src/main/resources/inputData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Stuff\Java\Testing\STORE\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793B32B8-BE8B-4BF2-AEEB-99D6A248624E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5451A4-1AE6-4FC2-B1A3-A9AB160433C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UsuariosRegistro" sheetId="1" r:id="rId1"/>
@@ -87,10 +87,10 @@
     <t>Sony VAIO</t>
   </si>
   <si>
-    <t>cagamosxd123sera@gmail.com</t>
-  </si>
-  <si>
-    <t>devererasxdseraphine123xd@gmail.com</t>
+    <t>andreselfex12xd@gmail.com</t>
+  </si>
+  <si>
+    <t>martinylas12345xd@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -426,7 +426,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="2">
-        <v>8735321499</v>
+        <v>873532141</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -457,11 +457,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{EF71A85C-5D06-4CBD-B430-A60F5456BC73}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{97EE02D1-783B-416E-A5C8-C6A9353AF4D3}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{80848B11-F6C0-47C1-8CD3-47ACF5B0654F}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{1E141E55-B3FE-48FC-9C71-27DCF070324F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
